--- a/Trimestre 3/normalizacion.xlsx
+++ b/Trimestre 3/normalizacion.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocan\Downloads\"/>
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A0756DF2-4529-42DB-BA5C-96884427EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS DESNORMALIZADA" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="(2FN)" sheetId="3" r:id="rId3"/>
     <sheet name="(3FN)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,61 +41,216 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="111">
   <si>
+    <t>ID_pedido</t>
+  </si>
+  <si>
+    <t>Fecha_pedido</t>
+  </si>
+  <si>
+    <t>Estado_pedido</t>
+  </si>
+  <si>
+    <t>Código_pedido</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
     <t>ID_usuario</t>
   </si>
   <si>
-    <t>ID_pedido</t>
+    <t>Nombre_usuario</t>
+  </si>
+  <si>
+    <t>Correo_usuario</t>
+  </si>
+  <si>
+    <t>Teléfono_usuario</t>
+  </si>
+  <si>
+    <t>Rol_usuario</t>
   </si>
   <si>
     <t>ID_joya</t>
   </si>
   <si>
-    <t>ID_foto</t>
-  </si>
-  <si>
-    <t>ID_render</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Fecha_pedido</t>
-  </si>
-  <si>
     <t>Tipo_gema</t>
   </si>
   <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Montura</t>
+  </si>
+  <si>
+    <t>Fecha_creación_joya</t>
+  </si>
+  <si>
     <t>Imagen_foto</t>
   </si>
   <si>
+    <t>Descripción_foto</t>
+  </si>
+  <si>
     <t>Imagen_render</t>
   </si>
   <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Forma</t>
-  </si>
-  <si>
-    <t>Descripción_foto</t>
-  </si>
-  <si>
     <t>Descripción_render</t>
   </si>
   <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Montura</t>
+    <t>Fecha_aprobación_render</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>juan@mail.com</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>Redonda</t>
+  </si>
+  <si>
+    <t>Oro</t>
+  </si>
+  <si>
+    <t>img1.jpg</t>
+  </si>
+  <si>
+    <t>Foto inicial</t>
+  </si>
+  <si>
+    <t>render1.png</t>
+  </si>
+  <si>
+    <t>Render final</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>María López</t>
+  </si>
+  <si>
+    <t>maria@mail.com</t>
+  </si>
+  <si>
+    <t>Rubí</t>
+  </si>
+  <si>
+    <t>Ovalada</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>img2.jpg</t>
+  </si>
+  <si>
+    <t>Foto aprobada</t>
+  </si>
+  <si>
+    <t>render2.png</t>
+  </si>
+  <si>
+    <t>Render modificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos ruiz </t>
+  </si>
+  <si>
+    <t>calor@gmail.com</t>
+  </si>
+  <si>
+    <t>Toda la información está en una sola tabla.</t>
+  </si>
+  <si>
+    <r>
+      <t>Hay redundancia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: por ejemplo, el nombre y correo del usuario se repiten si ha hecho varios pedidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La joya, la foto y el render están en la misma fila</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, lo que implica que si un pedido tiene varias imágenes o renders, habría duplicación de datos.</t>
+    </r>
+  </si>
+  <si>
+    <t>No hay claves foráneas, solo IDs dentro de la misma tabla.</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos ruiz </t>
+  </si>
+  <si>
+    <t>Primera Forma Normal (1FN)</t>
   </si>
   <si>
     <t>Reglas aplicadas:</t>
   </si>
   <si>
-    <t>Primera Forma Normal (1FN)</t>
+    <r>
+      <t xml:space="preserve">Se eliminan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valores repetidos o listas en una sola columna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -124,158 +279,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Se eliminan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>valores repetidos o listas en una sola columna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tabla: Usuario</t>
-  </si>
-  <si>
-    <t>Juan Pérez</t>
-  </si>
-  <si>
-    <t>juan@example.com</t>
-  </si>
-  <si>
-    <t>María Gómez</t>
-  </si>
-  <si>
-    <t>maria@example.com</t>
-  </si>
-  <si>
-    <t>Carlos Ruiz</t>
-  </si>
-  <si>
-    <t>carlos@example.com</t>
-  </si>
-  <si>
-    <t>Tabla: Pedido</t>
-  </si>
-  <si>
-    <t>ID_estado</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>1200.50</t>
-  </si>
-  <si>
-    <t>750.75</t>
-  </si>
-  <si>
-    <t>Tabla: EstadoPedido</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>En Proceso</t>
-  </si>
-  <si>
-    <t>Enviado</t>
-  </si>
-  <si>
-    <t>Entregado</t>
-  </si>
-  <si>
-    <t>Tabla: Joya</t>
-  </si>
-  <si>
-    <t>Diamante</t>
-  </si>
-  <si>
-    <t>Redonda</t>
-  </si>
-  <si>
-    <t>Oro Blanco</t>
-  </si>
-  <si>
-    <t>Zafiro</t>
-  </si>
-  <si>
-    <t>Ovalada</t>
-  </si>
-  <si>
-    <t>Plata</t>
-  </si>
-  <si>
-    <t>Esmeralda</t>
-  </si>
-  <si>
-    <t>Cuadrada</t>
-  </si>
-  <si>
-    <t>Oro Amarillo</t>
-  </si>
-  <si>
-    <t>Tabla: FotoProducto</t>
-  </si>
-  <si>
-    <t>foto1.jpg</t>
-  </si>
-  <si>
-    <t>Foto del anillo de diamante</t>
-  </si>
-  <si>
-    <t>foto2.jpg</t>
-  </si>
-  <si>
-    <t>Foto del anillo con zafiro</t>
-  </si>
-  <si>
-    <t>foto3.jpg</t>
-  </si>
-  <si>
-    <t>Foto del anillo con esmeralda</t>
-  </si>
-  <si>
-    <t>Tabla: Render3D</t>
-  </si>
-  <si>
-    <t>render1.jpg</t>
-  </si>
-  <si>
-    <t>Render 3D del anillo de diamante</t>
-  </si>
-  <si>
-    <t>render2.jpg</t>
-  </si>
-  <si>
-    <t>Render 3D del anillo con zafiro</t>
-  </si>
-  <si>
-    <t>render3.jpg</t>
-  </si>
-  <si>
-    <t>Render 3D del anillo con esmeralda</t>
-  </si>
-  <si>
     <t>Segunda Forma Normal (2FN)</t>
   </si>
   <si>
@@ -305,18 +308,144 @@
     </r>
   </si>
   <si>
+    <t>Tabla: Usuario</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>juan@example.com</t>
+  </si>
+  <si>
+    <t>María Gómez</t>
+  </si>
+  <si>
+    <t>maria@example.com</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz</t>
+  </si>
+  <si>
+    <t>carlos@example.com</t>
+  </si>
+  <si>
+    <t>Tabla: Pedido</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ID_estado</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1200.50</t>
+  </si>
+  <si>
+    <t>750.75</t>
+  </si>
+  <si>
+    <t>Tabla: EstadoPedido</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>Enviado</t>
+  </si>
+  <si>
+    <t>Entregado</t>
+  </si>
+  <si>
+    <t>Tabla: Joya</t>
+  </si>
+  <si>
+    <t>Oro Blanco</t>
+  </si>
+  <si>
+    <t>Zafiro</t>
+  </si>
+  <si>
+    <t>Cuadrada</t>
+  </si>
+  <si>
+    <t>Oro Amarillo</t>
+  </si>
+  <si>
+    <t>Tabla: FotoProducto</t>
+  </si>
+  <si>
+    <t>ID_foto</t>
+  </si>
+  <si>
+    <t>foto1.jpg</t>
+  </si>
+  <si>
+    <t>Foto del anillo de diamante</t>
+  </si>
+  <si>
+    <t>foto2.jpg</t>
+  </si>
+  <si>
+    <t>Foto del anillo con zafiro</t>
+  </si>
+  <si>
+    <t>foto3.jpg</t>
+  </si>
+  <si>
+    <t>Foto del anillo con esmeralda</t>
+  </si>
+  <si>
+    <t>Tabla: Render3D</t>
+  </si>
+  <si>
+    <t>ID_render</t>
+  </si>
+  <si>
+    <t>render1.jpg</t>
+  </si>
+  <si>
+    <t>Render 3D del anillo de diamante</t>
+  </si>
+  <si>
+    <t>render2.jpg</t>
+  </si>
+  <si>
+    <t>Render 3D del anillo con zafiro</t>
+  </si>
+  <si>
+    <t>render3.jpg</t>
+  </si>
+  <si>
+    <t>Render 3D del anillo con esmeralda</t>
+  </si>
+  <si>
     <t>¿Qué hicimos en este paso?</t>
   </si>
   <si>
+    <t>Cada tabla tiene una clave primaria bien definida.</t>
+  </si>
+  <si>
+    <t>No hay dependencias parciales.</t>
+  </si>
+  <si>
     <t>Las fotos y renders están relacionadas solo con el pedido.</t>
   </si>
   <si>
-    <t>No hay dependencias parciales.</t>
-  </si>
-  <si>
-    <t>Cada tabla tiene una clave primaria bien definida.</t>
-  </si>
-  <si>
     <t>Tercera Forma Normal (3FN)</t>
   </si>
   <si>
@@ -336,142 +465,13 @@
   </si>
   <si>
     <t>🔹 Igual que las fotos, los renders 3D se gestionan en su propia tabla.</t>
-  </si>
-  <si>
-    <t>Estado_pedido</t>
-  </si>
-  <si>
-    <t>Código_pedido</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Nombre_usuario</t>
-  </si>
-  <si>
-    <t>Correo_usuario</t>
-  </si>
-  <si>
-    <t>Teléfono_usuario</t>
-  </si>
-  <si>
-    <t>Rol_usuario</t>
-  </si>
-  <si>
-    <t>Tamaño</t>
-  </si>
-  <si>
-    <t>Fecha_creación_joya</t>
-  </si>
-  <si>
-    <t>Fecha_aprobación_render</t>
-  </si>
-  <si>
-    <t>En proceso</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>juan@mail.com</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <t>img1.jpg</t>
-  </si>
-  <si>
-    <t>Foto inicial</t>
-  </si>
-  <si>
-    <t>render1.png</t>
-  </si>
-  <si>
-    <t>Render final</t>
-  </si>
-  <si>
-    <t>Completado</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>María López</t>
-  </si>
-  <si>
-    <t>maria@mail.com</t>
-  </si>
-  <si>
-    <t>Rubí</t>
-  </si>
-  <si>
-    <t>img2.jpg</t>
-  </si>
-  <si>
-    <t>Foto aprobada</t>
-  </si>
-  <si>
-    <t>render2.png</t>
-  </si>
-  <si>
-    <t>Render modificado</t>
-  </si>
-  <si>
-    <t>Toda la información está en una sola tabla.</t>
-  </si>
-  <si>
-    <t>No hay claves foráneas, solo IDs dentro de la misma tabla.</t>
-  </si>
-  <si>
-    <r>
-      <t>Hay redundancia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: por ejemplo, el nombre y correo del usuario se repiten si ha hecho varios pedidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>La joya, la foto y el render están en la misma fila</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, lo que implica que si un pedido tiene varias imágenes o renders, habría duplicación de datos.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">carlos ruiz </t>
-  </si>
-  <si>
-    <t>calor@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos ruiz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,78 +912,78 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="45">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="30">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -991,64 +991,64 @@
         <v>45357</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>1001</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6">
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6">
         <v>1234567890</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6">
         <v>5</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="O5" s="6">
         <v>8</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7">
         <v>45356</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="V5" s="7">
         <v>45358</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="30">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1056,64 +1056,64 @@
         <v>45358</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6">
         <v>1002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6">
         <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="J6" s="6">
         <v>987654321</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6">
         <v>6</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O6" s="6">
         <v>6</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="7">
         <v>45357</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="V6" s="7">
         <v>45359</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="30">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -1121,64 +1121,64 @@
         <v>42622</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E7" s="14">
         <v>1003</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G7" s="14">
         <v>13</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J7" s="6">
         <v>987654321</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L7" s="6">
         <v>6</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O7" s="6">
         <v>6</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7">
         <v>45357</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="V7" s="7">
         <v>45359</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22">
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1190,9 +1190,9 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1214,9 +1214,9 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="C10" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1229,14 +1229,14 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="C12" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1252,74 +1252,74 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="45">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="30">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1327,64 +1327,64 @@
         <v>45357</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
         <v>1001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6">
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="J3" s="6">
         <v>1234567890</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L3" s="6">
         <v>5</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="O3" s="6">
         <v>8</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="7">
         <v>45356</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="V3" s="7">
         <v>45358</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="30">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -1392,64 +1392,64 @@
         <v>45357</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
         <v>1001</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6">
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6">
         <v>1234567890</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="O4" s="6">
         <v>8</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7">
         <v>45356</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="V4" s="7">
         <v>45358</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="30">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -1457,64 +1457,64 @@
         <v>45358</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6">
         <v>1002</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6">
         <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="J5" s="6">
         <v>987654321</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6">
         <v>6</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O5" s="6">
         <v>6</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7">
         <v>45357</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="V5" s="7">
         <v>45359</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="30">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -1522,95 +1522,95 @@
         <v>42622</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E6" s="14">
         <v>1003</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G6" s="14">
         <v>13</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6">
         <v>987654321</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6">
         <v>6</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O6" s="6">
         <v>6</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="7">
         <v>45357</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="V6" s="7">
         <v>45359</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:22" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="18">
       <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1620,7 +1620,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1630,7 +1630,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1640,7 +1640,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1650,7 +1650,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -1660,7 +1660,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1670,7 +1670,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1680,7 +1680,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1690,7 +1690,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1700,7 +1700,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1710,7 +1710,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1720,7 +1720,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1730,7 +1730,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1740,7 +1740,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1750,7 +1750,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1760,7 +1760,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1770,7 +1770,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1780,7 +1780,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1790,7 +1790,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1800,7 +1800,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1810,7 +1810,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1820,7 +1820,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1830,7 +1830,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1840,7 +1840,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1850,7 +1850,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1860,7 +1860,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1870,7 +1870,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1880,7 +1880,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1890,7 +1890,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1900,7 +1900,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1910,7 +1910,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1920,7 +1920,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1930,7 +1930,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1940,7 +1940,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1950,7 +1950,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1960,7 +1960,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1970,7 +1970,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="10"/>
       <c r="B57" s="13"/>
       <c r="C57" s="10"/>
@@ -1980,7 +1980,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1990,7 +1990,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2013,102 +2013,102 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30">
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2">
         <v>3112233445</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="30">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>3203344556</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="30">
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
         <v>3154455667</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30">
       <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>45717</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>45718</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>45719</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
@@ -2159,264 +2159,264 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="30">
       <c r="B33" s="2">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="30">
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="45">
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="45">
       <c r="B39" s="2">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="45">
       <c r="B40" s="2">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="30">
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="60">
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="45">
       <c r="B46" s="2">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="60">
       <c r="B47" s="2">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2432,105 +2432,105 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>3112233445</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="30">
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>3203344556</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="30">
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2">
         <v>3154455667</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30">
       <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>45717</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>45718</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -2564,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>45719</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
@@ -2581,269 +2581,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="30">
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="30">
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="45">
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="45">
       <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="45">
       <c r="B46" s="2">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30">
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="60">
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="45">
       <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="60">
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
